--- a/data/trans_camb/P17G_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.6701482626028654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9329377140892436</v>
+        <v>0.9329377140892325</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.16487817155877</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.607757938812254</v>
+        <v>-3.47422814798334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.891726769201854</v>
+        <v>-2.691012118164094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.807768989319019</v>
+        <v>-3.45393426524019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5691107574255614</v>
+        <v>-0.7377749717918343</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.780377985977959</v>
+        <v>-1.621422803616962</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.07355691780472</v>
+        <v>-7.647971003205521</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.208599009123428</v>
+        <v>-1.214200557850569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.511500765741232</v>
+        <v>-1.593743097116531</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.552928660357517</v>
+        <v>-4.716530472540143</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.469490265357452</v>
+        <v>4.165918624477225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.211627723250096</v>
+        <v>5.363499564805245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.722115095730419</v>
+        <v>5.598441974216954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.335368228950279</v>
+        <v>3.147512322245</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.583236072984328</v>
+        <v>2.50173730366215</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2225559530907463</v>
+        <v>-0.1903426767595583</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.466164619401409</v>
+        <v>2.4687592826031</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.40618168390611</v>
+        <v>2.442040617474314</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7370608317918188</v>
+        <v>0.6605210520510312</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.006957025964178265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.009685128294850609</v>
+        <v>0.009685128294850492</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01193510544980295</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0373281357721822</v>
+        <v>-0.03557889457815899</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02919530452697955</v>
+        <v>-0.02749986350180233</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0388348209383494</v>
+        <v>-0.03513398308336112</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.005845382027713606</v>
+        <v>-0.007475652822395385</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01807165921528185</v>
+        <v>-0.01634051041133166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07195492494479504</v>
+        <v>-0.07785476275746855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01228815388248498</v>
+        <v>-0.01238009271255279</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01531775375044002</v>
+        <v>-0.01611834883182175</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0465873347505832</v>
+        <v>-0.04822896507653113</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04777178497518227</v>
+        <v>0.04451558465676873</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05687664672315981</v>
+        <v>0.0575185848557862</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.06182591822853196</v>
+        <v>0.06022683681662893</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03469462818706397</v>
+        <v>0.03277456927558495</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02681584102799126</v>
+        <v>0.02592867470209273</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002427988662566454</v>
+        <v>-0.001973484052066437</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02565319541907516</v>
+        <v>0.02571927818001007</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02497760565430244</v>
+        <v>0.02547137423670664</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.007562271592779555</v>
+        <v>0.006910292988879006</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5403625413138879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7964694511094716</v>
+        <v>0.7964694511094828</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.204461114898669</v>
@@ -878,7 +878,7 @@
         <v>-0.2820871067005792</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.5566036899935844</v>
+        <v>-0.5566036899935733</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.778397112411903</v>
+        <v>-3.749460847842419</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.943981887601518</v>
+        <v>-4.230094081716422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.370456148826305</v>
+        <v>-4.447536004584121</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.033274296385192</v>
+        <v>-2.008401588478754</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.834812781793553</v>
+        <v>-5.076966852914444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.640146199932843</v>
+        <v>-5.240613421257551</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.626868612037927</v>
+        <v>-1.662465024781263</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.505987147128203</v>
+        <v>-3.360413400877717</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.790006090596703</v>
+        <v>-3.842054710558561</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.770044011804682</v>
+        <v>5.980454101007502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.131129328147427</v>
+        <v>4.918595819012705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.756039298069645</v>
+        <v>5.677345080076587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.345454768549518</v>
+        <v>4.897714694770444</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.003441749726449</v>
+        <v>3.002252140840293</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.994733339926632</v>
+        <v>2.232061023253944</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.033716078247482</v>
+        <v>4.179254528552416</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.491049265594899</v>
+        <v>2.509549632186529</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.399753896593188</v>
+        <v>2.504735762619358</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.005799199838620941</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.008547752960650764</v>
+        <v>0.008547752960650884</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.01275240669742652</v>
@@ -983,7 +983,7 @@
         <v>-0.003003360415890411</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.005926118032894257</v>
+        <v>-0.005926118032894139</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0391897504847674</v>
+        <v>-0.03936619671030217</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04153444437267463</v>
+        <v>-0.04436540795064156</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04494455006806234</v>
+        <v>-0.04648955324931824</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02087357173395814</v>
+        <v>-0.02084562760707634</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05028828056114084</v>
+        <v>-0.05337216750477649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05853891803518126</v>
+        <v>-0.05433079992438037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0170718720412281</v>
+        <v>-0.01740469964642171</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03669950392865563</v>
+        <v>-0.03521259472932074</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04000086325107778</v>
+        <v>-0.04009385860886621</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06412965851271132</v>
+        <v>0.06583774913554141</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05732508919441981</v>
+        <v>0.05460768205494633</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06336838833100257</v>
+        <v>0.06306200516780346</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04710996464030372</v>
+        <v>0.05381174511361699</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0321416466955416</v>
+        <v>0.03234145754410275</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02138662392320454</v>
+        <v>0.02439499602053629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0439612015411347</v>
+        <v>0.0448643739298891</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02716064007121887</v>
+        <v>0.02716148508221386</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.02563650840735325</v>
+        <v>0.02716759819200753</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.9972971641831641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.948612697169783</v>
+        <v>2.948612697169817</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.166295068344439</v>
@@ -1083,7 +1083,7 @@
         <v>1.634645764338494</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.7782420905393383</v>
+        <v>-0.7782420905393272</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.735684774062965</v>
@@ -1092,7 +1092,7 @@
         <v>1.152903759257407</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7604063661595717</v>
+        <v>0.7604063661595828</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5313857965614442</v>
+        <v>-0.1271476706222219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.16730578517258</v>
+        <v>-6.088396135988457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.353090178701848</v>
+        <v>-3.813606470887247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6085031431513793</v>
+        <v>-0.4510577904720254</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.544965586440345</v>
+        <v>-3.465752281239926</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.333833840145998</v>
+        <v>-5.675501579544886</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.126917343232072</v>
+        <v>1.17639216510324</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.083372775639308</v>
+        <v>-2.932327750472707</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.039504096829913</v>
+        <v>-3.222246217509649</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.56449443310504</v>
+        <v>11.36162607023379</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.718274049492966</v>
+        <v>7.346996534001446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.712035760818303</v>
+        <v>9.56938058161829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.877032663608755</v>
+        <v>9.228023755642424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.585070078304772</v>
+        <v>6.447958370874201</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.16753444970868</v>
+        <v>4.19817637503319</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.413709411987274</v>
+        <v>8.779489239100178</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.468605030780963</v>
+        <v>5.042629594838284</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.689588372273637</v>
+        <v>4.796264161626192</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.01146113845658852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.03388604679809468</v>
+        <v>0.03388604679809506</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04611458695313756</v>
@@ -1188,7 +1188,7 @@
         <v>0.01809305702083161</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.008613963237373106</v>
+        <v>-0.008613963237372985</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05321798920796314</v>
@@ -1197,7 +1197,7 @@
         <v>0.01295593409299946</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.008545184005823887</v>
+        <v>0.008545184005824012</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.005072772975854472</v>
+        <v>-0.000931775730424227</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06883656186479717</v>
+        <v>-0.06845177352464574</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0474779372956813</v>
+        <v>-0.04219377340306926</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.006141802179860957</v>
+        <v>-0.005246370077464987</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03830186119063302</v>
+        <v>-0.03704665428133836</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0579011115027569</v>
+        <v>-0.06064804271539882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01258438286071056</v>
+        <v>0.01265412794567446</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03421705344820539</v>
+        <v>-0.03222436863586656</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03339403286088913</v>
+        <v>-0.03559552132303381</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1401382580214652</v>
+        <v>0.1371093117691899</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09428188265178455</v>
+        <v>0.08816545717947737</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1167098079447025</v>
+        <v>0.1160379529032778</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.102690225156095</v>
+        <v>0.104496850947793</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07442103892165197</v>
+        <v>0.0737688348743728</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04867800119753844</v>
+        <v>0.04829395432186384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0974816268216922</v>
+        <v>0.1014483911884536</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06372572254634172</v>
+        <v>0.05794836266357699</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.05443445890257584</v>
+        <v>0.05577575041370217</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.285393425382187</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.605810212824757</v>
+        <v>-4.605810212824746</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.045285406132092</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.192580037813153</v>
+        <v>-8.358082528346717</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.20966435896794</v>
+        <v>-12.72599174382117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.86894319449056</v>
+        <v>-11.30842729417381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.262267794828322</v>
+        <v>-8.374683127082436</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.20752078290633</v>
+        <v>-12.05311064658141</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.38295051192245</v>
+        <v>-13.23644544203636</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.70858108829847</v>
+        <v>-4.809228076949737</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.289540677410903</v>
+        <v>-9.357119512055068</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.14563934064912</v>
+        <v>-9.525203658406623</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.03892989256234</v>
+        <v>16.65619886779929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.55165949701382</v>
+        <v>12.34771922240677</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.92898317727547</v>
+        <v>11.93970952077972</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.5566575931234</v>
+        <v>11.69837063388363</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.239454430710277</v>
+        <v>8.318503946721277</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.06849225468804</v>
+        <v>4.504114424445171</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.16903730987106</v>
+        <v>11.25259595148444</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.825830220743437</v>
+        <v>6.337936171672603</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.766967711127974</v>
+        <v>4.541793557625023</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.02641882428810127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.05324251368081667</v>
+        <v>-0.05324251368081653</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.03626395882941558</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09420609647479272</v>
+        <v>-0.09459553148115403</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1523876485534123</v>
+        <v>-0.1446047235970266</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1357858532802823</v>
+        <v>-0.1282463402166751</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06883671359056098</v>
+        <v>-0.09051450163124163</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1352423232951305</v>
+        <v>-0.1344751378734617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1355105013646042</v>
+        <v>-0.1431358187879639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.051866958893138</v>
+        <v>-0.05512803763576708</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1047368845690308</v>
+        <v>-0.109538302455701</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1145331875937227</v>
+        <v>-0.1082823692720494</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.234554823786186</v>
+        <v>0.2264480574328874</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.157506974240643</v>
+        <v>0.1680113127497496</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1566847072947726</v>
+        <v>0.1660355040305251</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1716585525995229</v>
+        <v>0.1440513097737436</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1047520883479202</v>
+        <v>0.1025795493694391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0628302002250201</v>
+        <v>0.05616755481163489</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1570140131869335</v>
+        <v>0.141631096058317</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08604494426348165</v>
+        <v>0.08002044537453337</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05986095296319355</v>
+        <v>0.05864786909438219</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.1300566881563769</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.809625266691652</v>
+        <v>-3.809625266691641</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.281295276684048</v>
@@ -1520,7 +1520,7 @@
         <v>0.2030056149455173</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.927314216555266</v>
+        <v>-2.927314216555255</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5095376880415157</v>
+        <v>-0.8646338756512356</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.24580641786756</v>
+        <v>-2.499470799718336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.28962022965877</v>
+        <v>-5.042435811459489</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.264644053572796</v>
+        <v>0.3095399998152891</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.860249378903998</v>
+        <v>-1.917589341882871</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.121662102338283</v>
+        <v>-6.273172134101985</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6384069726815538</v>
+        <v>0.6854934308357256</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.606647732658702</v>
+        <v>-1.519338065732192</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.788280789228371</v>
+        <v>-4.940021869610421</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.501999113338088</v>
+        <v>5.342152483205961</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.427935201851399</v>
+        <v>3.876135779205959</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.801360496869281</v>
+        <v>1.702082222203195</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.304709414551368</v>
+        <v>4.092765922861449</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.49742752538186</v>
+        <v>2.386439298357459</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.55656422005958</v>
+        <v>-1.508789936331901</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.143893802183121</v>
+        <v>4.059355000052866</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.987163187395437</v>
+        <v>1.935543498095407</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.8385920289778036</v>
+        <v>-0.8922356118698216</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.001388074523621977</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0406595297189411</v>
+        <v>-0.04065952971894098</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.02464806178178042</v>
@@ -1625,7 +1625,7 @@
         <v>0.0021933569890604</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.03162791875377702</v>
+        <v>-0.03162791875377691</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.005324903490435089</v>
+        <v>-0.009353715323208951</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02451116569926141</v>
+        <v>-0.0272390204345441</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0571789955259227</v>
+        <v>-0.05446504915917781</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.002799375023950295</v>
+        <v>0.003355063114095415</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01954981935290595</v>
+        <v>-0.02025868050121658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06470816095551418</v>
+        <v>-0.06599220438406372</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006869386180380774</v>
+        <v>0.007334335621620682</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01712789324110613</v>
+        <v>-0.01632396108134007</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05140347512004158</v>
+        <v>-0.05296113413168731</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06183064852593571</v>
+        <v>0.05994072338448109</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.03820816253806691</v>
+        <v>0.04350217688243377</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02066574069792795</v>
+        <v>0.01884353809842089</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04652297570346702</v>
+        <v>0.04433507213684058</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02726933121093883</v>
+        <v>0.02573585019406765</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01662929448379128</v>
+        <v>-0.01632670982276432</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04529665837956432</v>
+        <v>0.04434261354921303</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02171040249002736</v>
+        <v>0.02114469917338962</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.00914775281979777</v>
+        <v>-0.009717967380430348</v>
       </c>
     </row>
     <row r="34">
